--- a/build/sigtest.xlsx
+++ b/build/sigtest.xlsx
@@ -402,7 +402,7 @@
     <SignatureMethod Algorithm="http://www.w3.org/2001/04/xmldsig-more#rsa-ripemd160"/>
     <Reference Type="http://www.w3.org/2000/09/xmldsig#Object" URI="#idPackageObject">
       <DigestMethod Algorithm="http://www.w3.org/2001/04/xmlenc#ripemd160"/>
-      <DigestValue>yy+hSy1okbY0mxO0G60uz66Xa8Q=</DigestValue>
+      <DigestValue>HgRsjDCPcQcMNtlGaf+URXswP9Y=</DigestValue>
     </Reference>
     <Reference Type="http://www.w3.org/2000/09/xmldsig#Object" URI="#idOfficeObject">
       <DigestMethod Algorithm="http://www.w3.org/2001/04/xmlenc#ripemd160"/>
@@ -413,12 +413,12 @@
         <Transform Algorithm="http://www.w3.org/TR/2001/REC-xml-c14n-20010315"/>
       </Transforms>
       <DigestMethod Algorithm="http://www.w3.org/2001/04/xmlenc#ripemd160"/>
-      <DigestValue>+EYnca+8YMIXIiGNU3xwY6iUp1E=</DigestValue>
+      <DigestValue>UWkTaeCVli7dKjtDmeUEbqytN0I=</DigestValue>
     </Reference>
   </SignedInfo>
-  <SignatureValue Id="idPackageSignature-signature-value">esTtpIxNUeBY79r+Ruj7I6v58zswCI79V1uKuZtrZI2Ur83BsGTgeJB3VC8u8uFEIn+a1dAQVL+i
-Y2U2A/gS5Cot8kUQMR23t+UyD/oLGX8zLoIVH+6AKuQsuTNvuU+KLd+VLHylSAOGS+G572lU9G1o
-X9mnIvmO0UtHLpVGDso=</SignatureValue>
+  <SignatureValue Id="idPackageSignature-signature-value">HMAsyc4NT7q6+7jX3wvgOu8Kl1DnnSs+ivy6tInbc3ZoXkLgJaNTSjbaGoo5MvyCFCfs/lvxuIvr
+Mop+56KLFCOmvc8NyfQP7zmRHYklo9wtBOXLi74ELydSpotgg3o1wYuwa+IZOdw3CUaH5EDoYKOS
+oW0LI1XeQMGUIK4vkyU=</SignatureValue>
   <KeyInfo>
     <X509Data>
       <X509Certificate>MIICBjCCAW+gAwIBAgIQOVGQ++ScB5ohhfgsrvETmTANBgkqhkiG9w0BAQUFADAPMQ0wCwYDVQQD
@@ -489,11 +489,11 @@
         <DigestValue>5D2XmDa8m0eCopFqoBOK2R/Ce8o=</DigestValue>
       </Reference>
     </Manifest>
-    <SignatureProperties Id="id-signature-time-Fri Feb 17 09:53:45 GMT 2017">
+    <SignatureProperties Id="id-signature-time-Fri Feb 17 10:12:46 GMT 2017">
       <SignatureProperty Id="idSignatureTime" Target="#idPackageSignature">
         <mdssi:SignatureTime>
           <mdssi:Format>YYYY-MM-DDThh:mm:ssTZD</mdssi:Format>
-          <mdssi:Value>2017-02-17T09:53:45Z</mdssi:Value>
+          <mdssi:Value>2017-02-17T10:12:46Z</mdssi:Value>
         </mdssi:SignatureTime>
       </SignatureProperty>
     </SignatureProperties>
@@ -511,7 +511,7 @@
     <xd:QualifyingProperties xmlns:xd="http://uri.etsi.org/01903/v1.3.2#" Target="#idPackageSignature">
       <xd:SignedProperties Id="idSignedProperties">
         <xd:SignedSignatureProperties>
-          <xd:SigningTime>2017-02-17T09:53:45Z</xd:SigningTime>
+          <xd:SigningTime>2017-02-17T10:12:46Z</xd:SigningTime>
           <xd:SigningCertificate>
             <xd:Cert>
               <xd:CertDigest>
